--- a/message_generator/messageTable.xlsx
+++ b/message_generator/messageTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0000 ComNet" sheetId="1" r:id="rId1"/>
@@ -474,9 +474,6 @@
     <t>uint_64</t>
   </si>
   <si>
-    <t>#1002 Vehicle Authorization reply</t>
-  </si>
-  <si>
     <t>#2003 Vehicle Body Sensed State</t>
   </si>
   <si>
@@ -505,6 +502,9 @@
   </si>
   <si>
     <t>Battery_Percent</t>
+  </si>
+  <si>
+    <t>#1002 Vehicle Authorization Reply</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -1158,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>6</v>
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>6</v>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>6</v>
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>6</v>
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>6</v>
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>6</v>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>9</v>
@@ -1517,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -1672,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>6</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -1782,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>6</v>
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>6</v>
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>6</v>
@@ -2019,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>29</v>
@@ -2039,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>29</v>
@@ -2088,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>145</v>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>145</v>
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>6</v>
@@ -2794,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>6</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
@@ -2972,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>6</v>
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>6</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
@@ -3271,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>6</v>
@@ -3617,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -3699,7 +3699,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>6</v>
@@ -3781,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>6</v>
@@ -3856,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>6</v>
@@ -3931,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>6</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
@@ -4006,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>6</v>
@@ -4065,7 +4065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -4128,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>6</v>
@@ -4287,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>6</v>
@@ -4379,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>6</v>
@@ -4516,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -4617,7 +4617,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>6</v>
@@ -4720,7 +4720,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>6</v>
@@ -4881,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>6</v>
@@ -4941,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>6</v>
@@ -5001,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>6</v>
@@ -5061,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>6</v>
@@ -5121,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>6</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -5399,7 +5399,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -5433,7 +5433,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>13</v>
@@ -5501,7 +5501,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>29</v>

--- a/message_generator/messageTable.xlsx
+++ b/message_generator/messageTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0000 ComNet" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="168">
   <si>
     <t>Message Table</t>
   </si>
@@ -505,6 +505,39 @@
   </si>
   <si>
     <t>#1002 Vehicle Authorization Reply</t>
+  </si>
+  <si>
+    <t>#2006 Vehicle Waypoint Command</t>
+  </si>
+  <si>
+    <t>dest_id</t>
+  </si>
+  <si>
+    <t>Target_ID</t>
+  </si>
+  <si>
+    <t>target_type</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>#5002 Target Designation Command</t>
+  </si>
+  <si>
+    <t>uint16</t>
+  </si>
+  <si>
+    <t>uint8</t>
+  </si>
+  <si>
+    <t>int32</t>
   </si>
 </sst>
 </file>
@@ -647,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -720,6 +753,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1049,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,13 +1101,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
@@ -1080,13 +1116,13 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1124,13 +1160,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1169,13 +1205,13 @@
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1212,13 +1248,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -1255,13 +1291,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1337,13 +1373,13 @@
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -1410,13 +1446,13 @@
       <c r="E29" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
@@ -1517,7 +1553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:E18"/>
     </sheetView>
   </sheetViews>
@@ -1533,13 +1569,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1549,13 +1585,13 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1638,13 +1674,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1748,13 +1784,13 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1859,13 +1895,13 @@
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -1934,13 +1970,13 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -2053,13 +2089,13 @@
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2136,13 +2172,13 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2308,8 +2344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2324,13 +2360,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2340,13 +2376,13 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2439,13 +2475,13 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2759,13 +2795,13 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2937,13 +2973,13 @@
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3115,13 +3151,13 @@
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3238,13 +3274,13 @@
       <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
@@ -3466,53 +3502,113 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
+      <c r="A75" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
+      <c r="A76" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
+      <c r="A77" s="4">
+        <v>1</v>
+      </c>
+      <c r="B77" s="4">
+        <v>1</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
+      <c r="A78" s="4">
+        <v>2</v>
+      </c>
+      <c r="B78" s="4">
+        <v>1</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
+      <c r="A79" s="4">
+        <v>3</v>
+      </c>
+      <c r="B79" s="4">
+        <v>2</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
+      <c r="A80" s="4">
+        <v>4</v>
+      </c>
+      <c r="B80" s="4">
+        <v>2</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
+      <c r="A81" s="4">
+        <v>5</v>
+      </c>
+      <c r="B81" s="4">
+        <v>2</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
@@ -3536,7 +3632,8 @@
       <c r="E84" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A75:E75"/>
     <mergeCell ref="A60:E60"/>
     <mergeCell ref="A41:E41"/>
     <mergeCell ref="A1:E1"/>
@@ -3554,7 +3651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -3568,13 +3665,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
@@ -3584,13 +3681,13 @@
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -3666,13 +3763,13 @@
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -3748,13 +3845,13 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -3823,13 +3920,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -3898,13 +3995,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
@@ -3973,13 +4070,13 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
@@ -4065,7 +4162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -4079,13 +4176,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
@@ -4095,13 +4192,13 @@
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -4194,13 +4291,13 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -4254,13 +4351,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -4346,13 +4443,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -4451,10 +4548,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4467,13 +4564,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -4483,13 +4580,13 @@
       <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4584,13 +4681,13 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
@@ -4643,11 +4740,191 @@
         <v>12</v>
       </c>
     </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>1</v>
+      </c>
+      <c r="B17" s="26">
+        <v>1</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>4</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>5</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>7</v>
+      </c>
+      <c r="B23" s="7">
+        <v>6</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>8</v>
+      </c>
+      <c r="B24" s="7">
+        <v>6</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>9</v>
+      </c>
+      <c r="B25" s="4">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4657,7 +4934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -4671,13 +4948,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -4687,13 +4964,13 @@
       <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4788,13 +5065,13 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
@@ -4848,13 +5125,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
@@ -4908,13 +5185,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
@@ -4968,13 +5245,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
@@ -5028,13 +5305,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
@@ -5088,13 +5365,13 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
@@ -5265,13 +5542,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
@@ -5281,13 +5558,13 @@
       <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -5337,7 +5614,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5350,13 +5627,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
@@ -5366,13 +5643,13 @@
       <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
